--- a/Completed Projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Finance.xlsx
+++ b/Completed Projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Finance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE83E30E-A8B1-470B-A559-97E190709131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F80CC9-9C86-4DAB-A027-F9C425219AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Contract Amount</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Cash margin refundable 15%</t>
+  </si>
+  <si>
+    <t>Mob 20%</t>
+  </si>
+  <si>
+    <t>Premiun expenses</t>
+  </si>
+  <si>
+    <t>Cash margin 15%</t>
   </si>
 </sst>
 </file>
@@ -113,9 +122,9 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +191,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -280,7 +296,47 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -289,7 +345,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -297,10 +353,10 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -311,26 +367,21 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -340,38 +391,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -383,7 +405,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -452,58 +474,27 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,14 +502,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -543,16 +589,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>382060</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>200732</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>677335</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -575,8 +621,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12525375" y="1781175"/>
-          <a:ext cx="5954185" cy="5068007"/>
+          <a:off x="3667125" y="8124825"/>
+          <a:ext cx="5954185" cy="6096000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,16 +633,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76637</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>96085</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619562</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>77035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -619,7 +665,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14430375" y="2324100"/>
+          <a:off x="95250" y="7639050"/>
           <a:ext cx="3134162" cy="5982535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -631,16 +677,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>324867</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>29355</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29592</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>105556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -663,8 +709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="3981450"/>
-          <a:ext cx="7287642" cy="5591955"/>
+          <a:off x="9725025" y="8085456"/>
+          <a:ext cx="7773417" cy="5964700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,16 +721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1029301</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>550</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438751</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>229150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -707,7 +753,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801100" y="7505700"/>
+          <a:off x="13744575" y="3248025"/>
           <a:ext cx="4305901" cy="3943900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -983,656 +1029,840 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="G2" s="47" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="29">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="29">
         <v>44652803</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>44652803</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>1639518</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="31">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31">
         <v>6500000</v>
       </c>
-      <c r="G4" s="50">
+      <c r="I4" s="34">
         <v>0.2</v>
       </c>
-      <c r="H4" s="2">
-        <f>H3*20%</f>
+      <c r="J4" s="2">
+        <f>J3*20%</f>
         <v>8930560.5999999996</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>289918</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="33"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35" t="s">
+    <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="E6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="F6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="14"/>
+      <c r="I6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2">
-        <f>H4*7.5%</f>
+      <c r="J6" s="2">
+        <f>J4*7.5%</f>
         <v>669792.04499999993</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="41"/>
+      <c r="C7" s="10">
+        <f>G3*20%</f>
+        <v>8930560.5999999996</v>
+      </c>
+      <c r="D7" s="10">
         <v>35449032</v>
       </c>
-      <c r="C7" s="10">
+      <c r="E7" s="10">
         <v>6268508</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="29">
-        <f>D7+C7+B7</f>
-        <v>41717540</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="10">
+        <v>2627179</v>
+      </c>
+      <c r="G7" s="14">
+        <f>F7+E7+D7</f>
+        <v>44344719</v>
+      </c>
+      <c r="I7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>105185</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2">
-        <f>SUM(K3:K6)</f>
+      <c r="M7" s="2">
+        <f>SUM(M3:M6)</f>
         <v>1929436</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="33"/>
-      <c r="G8" s="50" t="s">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="48"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="49"/>
+      <c r="I8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2">
-        <f>H4*15%</f>
+      <c r="J8" s="2">
+        <f>J4*15%</f>
         <v>1339584.0899999999</v>
       </c>
-      <c r="J8"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="L8"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="51">
+      <c r="B9" s="35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="29">
-        <f>C9*E7</f>
-        <v>3128815.5</v>
-      </c>
-      <c r="G9" s="50" t="s">
+      <c r="C9" s="10">
+        <f>C7*B9</f>
+        <v>669792.04499999993</v>
+      </c>
+      <c r="D9" s="10">
+        <f>D7*B9</f>
+        <v>2658677.4</v>
+      </c>
+      <c r="E9" s="10">
+        <f>E7*B9</f>
+        <v>470138.1</v>
+      </c>
+      <c r="F9" s="10">
+        <f>B9*F7</f>
+        <v>197038.42499999999</v>
+      </c>
+      <c r="G9" s="14">
+        <f>F9+E9+D9</f>
+        <v>3325853.9249999998</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2">
-        <f>SUM(H6:H8)</f>
+      <c r="J9" s="2">
+        <f>SUM(J6:J8)</f>
         <v>2114561.1349999998</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="33"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="2"/>
-      <c r="J10"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="10">
+        <v>105185</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="2"/>
+      <c r="L10"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="10">
+        <f>C7*15%</f>
+        <v>1339584.0899999999</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="2">
+        <f>J4-J9</f>
+        <v>6815999.4649999999</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="48"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="49"/>
+      <c r="I12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="29">
+      <c r="B13" s="41"/>
+      <c r="C13" s="10">
+        <f>C7-C9-C10-C11</f>
+        <v>6815999.4649999999</v>
+      </c>
+      <c r="D13" s="10">
+        <f>D7-D9</f>
+        <v>32790354.600000001</v>
+      </c>
+      <c r="E13" s="10">
         <f>E7-E9</f>
-        <v>38588724.5</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="2">
-        <f>H4-H9</f>
-        <v>6815999.4649999999</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="33"/>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2">
+        <v>5798369.9000000004</v>
+      </c>
+      <c r="F13" s="10">
+        <f>F7-F9</f>
+        <v>2430140.5750000002</v>
+      </c>
+      <c r="G13" s="14">
+        <f>F13+E13+D13</f>
+        <v>41018865.075000003</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <f>J11-J12</f>
+        <v>315999.46499999985</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="49"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <f>B15*D13</f>
+        <v>6558070.9200000009</v>
+      </c>
+      <c r="E15" s="10">
+        <f>E13*B15</f>
+        <v>1159673.9800000002</v>
+      </c>
+      <c r="F15" s="10">
+        <f>F13*B15</f>
+        <v>486028.11500000005</v>
+      </c>
+      <c r="G15" s="14">
+        <f>F15+E15+D15</f>
+        <v>8203773.0150000006</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <f>B16*D13</f>
+        <v>1639517.7300000002</v>
+      </c>
+      <c r="E16" s="10">
+        <f>E13*B16</f>
+        <v>289918.49500000005</v>
+      </c>
+      <c r="F16" s="10">
+        <f>F13*B16</f>
+        <v>121507.02875000001</v>
+      </c>
+      <c r="G16" s="14">
+        <f>F16+E16+D16</f>
+        <v>2050943.2537500001</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="56">
+        <f>D13-D15-D16</f>
+        <v>24592765.949999999</v>
+      </c>
+      <c r="E17" s="56">
+        <f>E13-E15-E16</f>
+        <v>4348777.4249999998</v>
+      </c>
+      <c r="F17" s="56">
+        <f>F13-F15-F16</f>
+        <v>1822605.4312500001</v>
+      </c>
+      <c r="G17" s="51">
+        <f>G13-G15-G16</f>
+        <v>30764148.806250002</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6558071</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="50"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="49"/>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1159674</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="10">
         <v>6500000</v>
       </c>
-      <c r="J12"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="37">
-        <f>E11*20%</f>
-        <v>7717744.9000000004</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D19" s="10">
+        <v>24592765.949999999</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4600000</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="17">
+        <v>24592765.949999999</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="2"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="17"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="56">
+        <f>C13-C19</f>
+        <v>315999.46499999985</v>
+      </c>
+      <c r="D21" s="56">
+        <f>D17-D19</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="56">
+        <f>E17-E19</f>
+        <v>-251222.57500000019</v>
+      </c>
+      <c r="F21" s="56">
+        <f>F17-F19</f>
+        <v>1822605.4312500001</v>
+      </c>
+      <c r="G21" s="17">
+        <f>F21+E21+C21</f>
+        <v>1887382.3212499998</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <f>SUM(J17:J20)</f>
+        <v>7717745</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="48"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="17"/>
+      <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
-        <f>H11-H12</f>
-        <v>315999.46499999985</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="37">
-        <f>E11*C14</f>
-        <v>1929436.2250000001</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="38">
-        <f>E11-E13-E14</f>
-        <v>28941543.375</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="33"/>
-      <c r="G16" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="37">
-        <v>24592765.949999999</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6558071</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="37"/>
-      <c r="G18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1159674</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="37">
-        <f>E15-E17</f>
-        <v>4348777.4250000007</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="2"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="37"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <f>SUM(H17:H20)</f>
-        <v>7717745</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="17"/>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="43">
-        <f>H4-H21</f>
+      <c r="J22" s="32">
+        <f>J4-J21</f>
         <v>1212815.5999999996</v>
       </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
-      <c r="H23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="18"/>
-      <c r="H24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="J23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="17"/>
+      <c r="J24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="16"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="18"/>
+      <c r="J26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="K29" s="1">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="M29" s="1">
         <f>1159674+6558071</f>
         <v>7717745</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="27"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="27"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f>35449032+6268508</f>
+        <v>41717540</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>6815999</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>24592766</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>4664776</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f>SUM(I65:I67)</f>
+        <v>36073541</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
